--- a/0 Curriculum/Curriculum.xlsx
+++ b/0 Curriculum/Curriculum.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowWidth="8080" windowHeight="4910"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -22,18 +22,9 @@
     <t>Sub Topic</t>
   </si>
   <si>
-    <r>
-      <t>Details &amp;#10;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Adobe Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t>* = with pre-written code&amp;#10;** = with live coding</t>
-    </r>
+    <t>Details 
+* = with pre-written code
+** = with live coding</t>
   </si>
   <si>
     <t>1 Installing</t>
@@ -60,37 +51,58 @@
     <t>2.1 Variables and Datatypes</t>
   </si>
   <si>
-    <t>1 Declaring Variables*&amp;#10;2 Type function*&amp;#10;3 Data types</t>
+    <t>1 Declaring Variables*
+2 Type function*
+3 Data types</t>
   </si>
   <si>
     <t>2.2 Int and Float</t>
   </si>
   <si>
-    <t>1 Declaring Int and Float*&amp;#10;2 Math operations*&amp;#10;3 Round function*</t>
+    <t>1 Declaring Int and Float*
+2 Math operations*
+3 Round function*</t>
   </si>
   <si>
     <t>2.3 String</t>
   </si>
   <si>
-    <t>1 Declaring String*&amp;#10;2 String operation*&amp;#10;3 Int function*&amp;#10;4 Upper-Lower function*&amp;#10;5 Find function*&amp;#10;6 Replace function*</t>
+    <t>1 Declaring String*
+2 String operation*
+3 Int function*
+4 Upper-Lower function*
+5 Find function*
+6 Replace function*</t>
   </si>
   <si>
     <t>2.4 List</t>
   </si>
   <si>
-    <t>1 Declaring List*&amp;#10;2 Indexing*&amp;#10;3 Len function*&amp;#10;4 Append function*&amp;#10;5 Insert fuction*&amp;#10;6 Pop function*</t>
+    <t>1 Declaring List*
+2 Indexing*
+3 Len function*
+4 Append function*
+5 Insert fuction*
+6 Pop function*</t>
   </si>
   <si>
     <t>2.5 Dictionary</t>
   </si>
   <si>
-    <t>1 Declaring Dictionary*&amp;#10;2 Referring*&amp;#10;3 Keys function*&amp;#10;4 Values function*</t>
+    <t>1 Declaring Dictionary*
+2 Referring*
+3 Keys function*
+4 Values function*</t>
   </si>
   <si>
     <t>2.6 Boolean and Comparison</t>
   </si>
   <si>
-    <t>1 Declaring Boolean*&amp;#10;2 Comparison*&amp;#10;3 In List*&amp;#10;4 In String*&amp;#10;5 And-Or*</t>
+    <t>1 Declaring Boolean*
+2 Comparison*
+3 In List*
+4 In String*
+5 And-Or*</t>
   </si>
   <si>
     <t>2.7 Input</t>
@@ -99,10 +111,12 @@
     <t>1 Input*</t>
   </si>
   <si>
-    <t>2.8 Code chalenges</t>
-  </si>
-  <si>
-    <t>1 CodeChalenge1**&amp;#10;2 CodeChalenge2**&amp;#10;3 CodeChalenge3**</t>
+    <t>2.8 Code Challenges</t>
+  </si>
+  <si>
+    <t>1 CodeChallenge1**
+2 CodeChallenge2**
+3 CodeChallenge3**</t>
   </si>
   <si>
     <t>3 Conditional Programming (if-else)</t>
@@ -111,7 +125,8 @@
     <t>3.1 If-else statement</t>
   </si>
   <si>
-    <t>1 If statement*&amp;#10;2 else statement*</t>
+    <t>1 If statement*
+2 else statement*</t>
   </si>
   <si>
     <t>3.2 Else if statement</t>
@@ -120,10 +135,11 @@
     <t>1 elif statement*</t>
   </si>
   <si>
-    <t>3.3 Code chalenges</t>
-  </si>
-  <si>
-    <t>1 CodeChalenge1**&amp;#10;2 CodeChalenge2**</t>
+    <t>3.3 Code Challenges</t>
+  </si>
+  <si>
+    <t>1 CodeChallenge1**
+2 CodeChallenge2**</t>
   </si>
   <si>
     <t>4 Loop (For-While)</t>
@@ -132,7 +148,8 @@
     <t>4.1 For loop in range</t>
   </si>
   <si>
-    <t>1 Range*&amp;#10;2 For loop in range*</t>
+    <t>1 Range*
+2 For loop in range*</t>
   </si>
   <si>
     <t>4.2 For loop in list</t>
@@ -144,7 +161,8 @@
     <t>4.3 While loop</t>
   </si>
   <si>
-    <t>1 While loop*&amp;#10;2 While true*</t>
+    <t>1 While loop*
+2 While true*</t>
   </si>
   <si>
     <t>4.4 Loop breaking</t>
@@ -153,7 +171,7 @@
     <t>1 Break*</t>
   </si>
   <si>
-    <t>4.5 Code chalenges</t>
+    <t>4.5 Code Challenges</t>
   </si>
   <si>
     <t>5 Functional Programming</t>
@@ -162,13 +180,15 @@
     <t>5.1 Function basics</t>
   </si>
   <si>
-    <t>1 Function without parameters*&amp;#10;2 Function with parameters*</t>
+    <t>1 Function without parameters*
+2 Function with parameters*</t>
   </si>
   <si>
     <t>5.2 Function with return</t>
   </si>
   <si>
-    <t>1 Function with return1*&amp;#10;2 Function with return2*</t>
+    <t>1 Function with return1*
+2 Function with return2*</t>
   </si>
   <si>
     <t>5.3 Global vs Local variables</t>
@@ -180,10 +200,11 @@
     <t>5.4 Lambda function</t>
   </si>
   <si>
-    <t>1 Lambda function as a variable*&amp;#10;2 Anonymous function*</t>
-  </si>
-  <si>
-    <t>5.5 Code chalenges</t>
+    <t>1 Lambda function as a variable*
+2 Anonymous function*</t>
+  </si>
+  <si>
+    <t>5.5 Code Challenges</t>
   </si>
   <si>
     <t>6 Iterable (set, tuple, list)</t>
@@ -192,13 +213,16 @@
     <t>6.1 Set and Tuple</t>
   </si>
   <si>
-    <t>1 Declaring Set*&amp;#10;2 Declaring tuple*&amp;#10;3 Loop in Set and Tuple</t>
+    <t>1 Declaring Set*
+2 Declaring tuple*
+3 Loop in Set and Tuple</t>
   </si>
   <si>
     <t>6.2 List comprehension</t>
   </si>
   <si>
-    <t>1 List comprehention*&amp;#10;2 List comprehention with if*</t>
+    <t>1 List comprehention*
+2 List comprehention with if*</t>
   </si>
   <si>
     <t>6.3 List Slicling</t>
@@ -207,10 +231,10 @@
     <t>1 List slicing*</t>
   </si>
   <si>
-    <t>6.4 Code chalenges</t>
-  </si>
-  <si>
-    <t>1 CodeChalenge1**</t>
+    <t>6.4 Code Challenges</t>
+  </si>
+  <si>
+    <t>1 CodeChallenge1**</t>
   </si>
   <si>
     <t>7 Object Oriented programming</t>
@@ -225,7 +249,8 @@
     <t>7.2 Creating Class and Object</t>
   </si>
   <si>
-    <t>1 Creating Class and Object*&amp;#10;2 Manipulating objects's attributes*</t>
+    <t>1 Creating Class and Object*
+2 Manipulating objects's attributes*</t>
   </si>
   <si>
     <t>7.3 Methods</t>
@@ -243,13 +268,15 @@
     <t>7.5 Inheritance</t>
   </si>
   <si>
-    <t>1 Inheritance1*&amp;#10;2 Inheritance2*</t>
+    <t>1 Inheritance1*
+2 Inheritance2*</t>
   </si>
   <si>
     <t>7.6 Encapsulation</t>
   </si>
   <si>
-    <t>1 Private vs Public attributes*&amp;#10;2 Use of encapsulation*</t>
+    <t>1 Private vs Public attributes*
+2 Use of encapsulation*</t>
   </si>
   <si>
     <t>7.7 Code chalanges</t>
@@ -261,13 +288,17 @@
     <t>8.1 Import</t>
   </si>
   <si>
-    <t>1 File management&amp;#10;2 Import*&amp;#10;3 Import...as*&amp;#10;4 From...Import*</t>
+    <t>1 File management
+2 Import*
+3 Import...as*
+4 From...Import*</t>
   </si>
   <si>
     <t>8.2 Libraries</t>
   </si>
   <si>
-    <t>1 pip install&amp;#10;2 Import libraries*</t>
+    <t>1 pip install
+2 Import libraries*</t>
   </si>
   <si>
     <t>9 Python notebook (ipynb)</t>
@@ -288,14 +319,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -303,16 +339,167 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Adobe Devanagari"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Adobe Devanagari"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,26 +508,216 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFe2f0d9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFdae3f3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFfff2cc"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFfbe5d6"/>
+        <fgColor rgb="FFE2F0D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAE3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE5D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -374,7 +751,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -386,10 +763,10 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -401,100 +778,455 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -505,10 +1237,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -546,71 +1278,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -638,7 +1370,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -661,11 +1393,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -674,13 +1406,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -690,7 +1422,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -699,7 +1431,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -708,7 +1440,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -716,10 +1448,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -779,403 +1511,404 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" style="23" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="24" width="33.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="24" width="52.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="22.5727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8636363636364" style="2" customWidth="1"/>
+    <col min="3" max="3" width="52.5727272727273" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="55.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="55.5" spans="1:3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="22.5">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="18.5" spans="1:3">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="22.5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4" t="s">
+    <row r="3" ht="18.5" spans="1:3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4" t="s">
+    <row r="4" ht="18.5" spans="1:3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="55.5">
-      <c r="A5" s="7" t="s">
+    <row r="5" ht="55.5" spans="1:3">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="55.5">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8" t="s">
+    <row r="6" ht="55.5" spans="1:3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="105">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8" t="s">
+    <row r="7" ht="111" spans="1:3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="105">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8" t="s">
+    <row r="8" ht="111" spans="1:3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="72">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8" t="s">
+    <row r="9" ht="74" spans="1:3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="88.5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8" t="s">
+    <row r="10" ht="92.5" spans="1:3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="22.5">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8" t="s">
+    <row r="11" ht="18.5" spans="1:3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="55.5">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8" t="s">
+    <row r="12" ht="55.5" spans="1:3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="39">
-      <c r="A13" s="12" t="s">
+    <row r="13" ht="37" spans="1:3">
+      <c r="A13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="22.5">
-      <c r="A14" s="15"/>
-      <c r="B14" s="13" t="s">
+    <row r="14" ht="18.5" spans="1:3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="39">
-      <c r="A15" s="16"/>
-      <c r="B15" s="13" t="s">
+    <row r="15" ht="37" spans="1:3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="39">
-      <c r="A16" s="17" t="s">
+    <row r="16" ht="37" spans="1:3">
+      <c r="A16" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="20"/>
-      <c r="B17" s="18" t="s">
+    <row r="17" ht="18.5" spans="1:3">
+      <c r="A17" s="26"/>
+      <c r="B17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="20"/>
-      <c r="B18" s="18" t="s">
+    <row r="18" ht="37" spans="1:3">
+      <c r="A18" s="26"/>
+      <c r="B18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="20"/>
-      <c r="B19" s="18" t="s">
+    <row r="19" ht="18.5" spans="1:3">
+      <c r="A19" s="26"/>
+      <c r="B19" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="21"/>
-      <c r="B20" s="18" t="s">
+    <row r="20" ht="37" spans="1:3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="3" t="s">
+    <row r="21" ht="37" spans="1:3">
+      <c r="A21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4" t="s">
+    <row r="22" ht="37" spans="1:3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="29">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4" t="s">
+    <row r="23" ht="18.5" spans="1:3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4" t="s">
+    <row r="24" ht="37" spans="1:3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="6"/>
-      <c r="B25" s="4" t="s">
+    <row r="25" ht="37" spans="1:3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="7" t="s">
+    <row r="26" ht="55.5" spans="1:3">
+      <c r="A26" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="10"/>
-      <c r="B27" s="8" t="s">
+    <row r="27" ht="37" spans="1:3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="10"/>
-      <c r="B28" s="8" t="s">
+    <row r="28" ht="18.5" spans="1:3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="11"/>
-      <c r="B29" s="8" t="s">
+    <row r="29" ht="18.5" spans="1:3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="12" t="s">
+    <row r="30" ht="18.5" spans="1:3">
+      <c r="A30" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="15"/>
-      <c r="B31" s="13" t="s">
+    <row r="31" ht="37" spans="1:3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="15"/>
-      <c r="B32" s="13" t="s">
+    <row r="32" ht="18.5" spans="1:3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="15"/>
-      <c r="B33" s="13" t="s">
+    <row r="33" ht="18.5" spans="1:3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="15"/>
-      <c r="B34" s="13" t="s">
+    <row r="34" ht="37" spans="1:3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="15"/>
-      <c r="B35" s="13" t="s">
+    <row r="35" ht="37" spans="1:3">
+      <c r="A35" s="21"/>
+      <c r="B35" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="16"/>
-      <c r="B36" s="13" t="s">
+    <row r="36" ht="37" spans="1:3">
+      <c r="A36" s="22"/>
+      <c r="B36" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="17" t="s">
+    <row r="37" ht="74" spans="1:3">
+      <c r="A37" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="21"/>
-      <c r="B38" s="18" t="s">
+    <row r="38" ht="37" spans="1:3">
+      <c r="A38" s="27"/>
+      <c r="B38" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="3" t="s">
+    <row r="39" ht="18.5" spans="1:3">
+      <c r="A39" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="6"/>
-      <c r="B40" s="4" t="s">
+    <row r="40" ht="18.5" spans="1:3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1192,5 +1925,7 @@
     <mergeCell ref="A39:A40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/0 Curriculum/Curriculum.xlsx
+++ b/0 Curriculum/Curriculum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="8080" windowHeight="4910"/>
+    <workbookView windowWidth="19200" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
   <si>
     <t>Main Topic</t>
   </si>
@@ -299,6 +299,22 @@
   <si>
     <t>1 pip install
 2 Import libraries*</t>
+  </si>
+  <si>
+    <t>8.3 Text files</t>
+  </si>
+  <si>
+    <t>1 open text file
+2 read text from file
+3 write text to file</t>
+  </si>
+  <si>
+    <t>8.4 CSV files</t>
+  </si>
+  <si>
+    <t>1 open csv file
+2 read csv from file
+3 write csv to file</t>
   </si>
   <si>
     <t>9 Python notebook (ipynb)</t>
@@ -322,11 +338,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,8 +364,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,28 +387,85 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,94 +479,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,8 +500,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,192 +541,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -841,6 +856,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -851,6 +892,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,24 +944,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -929,6 +961,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -940,152 +981,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1170,6 +1211,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1519,10 +1584,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
@@ -1864,52 +1929,70 @@
       </c>
     </row>
     <row r="36" ht="37" spans="1:3">
-      <c r="A36" s="22"/>
-      <c r="B36" s="19" t="s">
+      <c r="A36" s="29"/>
+      <c r="B36" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" ht="74" spans="1:3">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="34" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="38" ht="37" spans="1:3">
-      <c r="A38" s="27"/>
-      <c r="B38" s="24" t="s">
+      <c r="A38" s="32"/>
+      <c r="B38" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" ht="18.5" spans="1:3">
-      <c r="A39" s="5" t="s">
+    <row r="39" ht="55.5" spans="1:3">
+      <c r="A39" s="32"/>
+      <c r="B39" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="6" t="s">
+    </row>
+    <row r="40" ht="55.5" spans="1:3">
+      <c r="A40" s="32"/>
+      <c r="B40" s="33" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="40" ht="18.5" spans="1:3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="6" t="s">
+      <c r="C40" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="6" t="s">
+    </row>
+    <row r="41" ht="18.5" spans="1:3">
+      <c r="A41" s="35" t="s">
         <v>85</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" ht="18.5" spans="1:3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1921,8 +2004,8 @@
     <mergeCell ref="A21:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A41:A42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
